--- a/Data_Result/혈당예측_결과정리_단변량_SG필터_이상치 제거.xlsx
+++ b/Data_Result/혈당예측_결과정리_단변량_SG필터_이상치 제거.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="138">
   <si>
     <t>RNN_15</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -586,6 +586,9 @@
   <si>
     <t>[SG 필터 - [X,15,5]</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.38963917.60138527.726499</t>
   </si>
 </sst>
 </file>
@@ -1026,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q44" sqref="Q44"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N47" sqref="N47:P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3188,19 +3191,45 @@
       <c r="A44" t="s">
         <v>116</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="3"/>
+      <c r="B44" s="5">
+        <v>10.734087000000001</v>
+      </c>
+      <c r="C44" s="5">
+        <v>17.808472999999999</v>
+      </c>
+      <c r="D44" s="5">
+        <v>28.592929000000002</v>
+      </c>
+      <c r="E44" s="5">
+        <v>9.9944880000000005</v>
+      </c>
+      <c r="F44" s="5">
+        <v>18.416056000000001</v>
+      </c>
+      <c r="G44" s="5">
+        <v>27.971587</v>
+      </c>
+      <c r="H44" s="5">
+        <v>12.652091</v>
+      </c>
+      <c r="I44" s="5">
+        <v>18.510189</v>
+      </c>
+      <c r="J44" s="5">
+        <v>29.244167999999998</v>
+      </c>
+      <c r="K44" s="5">
+        <v>10.940108</v>
+      </c>
+      <c r="L44" s="5">
+        <v>18.914331000000001</v>
+      </c>
+      <c r="M44" s="5">
+        <v>29.004089</v>
+      </c>
+      <c r="N44" t="s">
+        <v>137</v>
+      </c>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
       <c r="Q44" t="s">
@@ -3219,21 +3248,51 @@
       <c r="A46" t="s">
         <v>117</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
+      <c r="B46" s="5">
+        <v>11.938882</v>
+      </c>
+      <c r="C46" s="5">
+        <v>17.340803000000001</v>
+      </c>
+      <c r="D46" s="5">
+        <v>30.153036</v>
+      </c>
+      <c r="E46" s="5">
+        <v>12.841710000000001</v>
+      </c>
+      <c r="F46" s="5">
+        <v>17.021640000000001</v>
+      </c>
+      <c r="G46" s="5">
+        <v>28.120294000000001</v>
+      </c>
+      <c r="H46" s="5">
+        <v>10.993842000000001</v>
+      </c>
+      <c r="I46" s="5">
+        <v>19.659369999999999</v>
+      </c>
+      <c r="J46" s="5">
+        <v>29.280642</v>
+      </c>
+      <c r="K46" s="5">
+        <v>9.8381080000000001</v>
+      </c>
+      <c r="L46" s="5">
+        <v>17.149657999999999</v>
+      </c>
+      <c r="M46" s="5">
+        <v>30.23733</v>
+      </c>
+      <c r="N46" s="5">
+        <v>12.479323000000001</v>
+      </c>
+      <c r="O46" s="5">
+        <v>18.430389000000002</v>
+      </c>
+      <c r="P46" s="5">
+        <v>30.918258000000002</v>
+      </c>
       <c r="Q46" t="s">
         <v>74</v>
       </c>
@@ -3242,21 +3301,51 @@
       <c r="A47" t="s">
         <v>121</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
+      <c r="B47" s="5">
+        <v>11.647728000000001</v>
+      </c>
+      <c r="C47" s="5">
+        <v>19.102042000000001</v>
+      </c>
+      <c r="D47" s="5">
+        <v>29.904202999999999</v>
+      </c>
+      <c r="E47" s="5">
+        <v>12.525505000000001</v>
+      </c>
+      <c r="F47" s="5">
+        <v>18.527581000000001</v>
+      </c>
+      <c r="G47" s="5">
+        <v>30.326187999999998</v>
+      </c>
+      <c r="H47" s="5">
+        <v>11.508829</v>
+      </c>
+      <c r="I47" s="5">
+        <v>21.123694</v>
+      </c>
+      <c r="J47" s="5">
+        <v>31.335087000000001</v>
+      </c>
+      <c r="K47" s="5">
+        <v>12.083606</v>
+      </c>
+      <c r="L47" s="5">
+        <v>19.665566999999999</v>
+      </c>
+      <c r="M47" s="5">
+        <v>32.412222</v>
+      </c>
+      <c r="N47" s="5">
+        <v>12.102978999999999</v>
+      </c>
+      <c r="O47" s="5">
+        <v>19.338370999999999</v>
+      </c>
+      <c r="P47" s="5">
+        <v>33.936225999999998</v>
+      </c>
       <c r="Q47" t="s">
         <v>58</v>
       </c>
@@ -3418,63 +3507,63 @@
       </c>
       <c r="B56">
         <f t="shared" ref="B56:P56" si="0">AVERAGE(B2:B55)</f>
-        <v>13.011742948717949</v>
+        <v>12.899492190476192</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>20.404773307692313</v>
+        <v>20.238987547619054</v>
       </c>
       <c r="D56">
         <f t="shared" si="0"/>
-        <v>31.492439717948717</v>
+        <v>31.353698023809518</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>12.856190894736841</v>
+        <v>12.777974560975608</v>
       </c>
       <c r="F56">
         <f t="shared" si="0"/>
-        <v>21.32125748717948</v>
+        <v>21.083198071428569</v>
       </c>
       <c r="G56">
         <f t="shared" si="0"/>
-        <v>32.911152358974356</v>
+        <v>32.617928833333337</v>
       </c>
       <c r="H56">
         <f t="shared" si="0"/>
-        <v>15.333952051282052</v>
+        <v>15.075687904761905</v>
       </c>
       <c r="I56">
         <f t="shared" si="0"/>
-        <v>21.884951810810811</v>
+        <v>21.725911750000002</v>
       </c>
       <c r="J56">
         <f t="shared" si="0"/>
-        <v>33.092585615384607</v>
+        <v>32.868350857142843</v>
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
-        <v>13.463294897435899</v>
+        <v>13.284055309523813</v>
       </c>
       <c r="L56">
         <f t="shared" si="0"/>
-        <v>21.693465333333336</v>
+        <v>21.470826285714288</v>
       </c>
       <c r="M56">
         <f t="shared" si="0"/>
-        <v>32.698598243243239</v>
+        <v>32.537544399999987</v>
       </c>
       <c r="N56">
         <f t="shared" si="0"/>
-        <v>13.242754948717947</v>
+        <v>13.196335243902437</v>
       </c>
       <c r="O56">
         <f t="shared" si="0"/>
-        <v>21.02560682051282</v>
+        <v>20.921156731707317</v>
       </c>
       <c r="P56">
         <f t="shared" si="0"/>
-        <v>32.613212717948713</v>
+        <v>32.604140975609752</v>
       </c>
     </row>
   </sheetData>
@@ -3488,8 +3577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N42" sqref="N42:P42"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N47" sqref="N47:P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5563,21 +5652,51 @@
       <c r="A44" t="s">
         <v>115</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
+      <c r="B44" s="5">
+        <v>5.9728960000000004</v>
+      </c>
+      <c r="C44" s="5">
+        <v>13.410684</v>
+      </c>
+      <c r="D44" s="5">
+        <v>24.394679</v>
+      </c>
+      <c r="E44" s="5">
+        <v>6.3100440000000004</v>
+      </c>
+      <c r="F44" s="5">
+        <v>13.489596000000001</v>
+      </c>
+      <c r="G44" s="5">
+        <v>24.432151999999999</v>
+      </c>
+      <c r="H44" s="5">
+        <v>5.2400820000000001</v>
+      </c>
+      <c r="I44" s="5">
+        <v>13.015064000000001</v>
+      </c>
+      <c r="J44" s="5">
+        <v>22.893152000000001</v>
+      </c>
+      <c r="K44" s="5">
+        <v>5.8395999999999999</v>
+      </c>
+      <c r="L44" s="5">
+        <v>14.802982999999999</v>
+      </c>
+      <c r="M44" s="5">
+        <v>24.874777999999999</v>
+      </c>
+      <c r="N44" s="5">
+        <v>5.4712680000000002</v>
+      </c>
+      <c r="O44" s="5">
+        <v>13.904140999999999</v>
+      </c>
+      <c r="P44" s="5">
+        <v>24.917394000000002</v>
+      </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
@@ -5588,41 +5707,101 @@
       <c r="A46" t="s">
         <v>120</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
+      <c r="B46" s="5">
+        <v>7.0127309999999996</v>
+      </c>
+      <c r="C46" s="5">
+        <v>16.942962000000001</v>
+      </c>
+      <c r="D46" s="5">
+        <v>29.771227</v>
+      </c>
+      <c r="E46" s="5">
+        <v>6.19475</v>
+      </c>
+      <c r="F46" s="5">
+        <v>17.983505000000001</v>
+      </c>
+      <c r="G46" s="5">
+        <v>28.970144000000001</v>
+      </c>
+      <c r="H46" s="5">
+        <v>5.992559</v>
+      </c>
+      <c r="I46" s="5">
+        <v>15.290146999999999</v>
+      </c>
+      <c r="J46" s="5">
+        <v>28.018122000000002</v>
+      </c>
+      <c r="K46" s="5">
+        <v>7.1958539999999998</v>
+      </c>
+      <c r="L46" s="5">
+        <v>17.557442999999999</v>
+      </c>
+      <c r="M46" s="5">
+        <v>29.594223</v>
+      </c>
+      <c r="N46" s="5">
+        <v>6.2239579999999997</v>
+      </c>
+      <c r="O46" s="5">
+        <v>15.950511000000001</v>
+      </c>
+      <c r="P46" s="5">
+        <v>29.555350000000001</v>
+      </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>122</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
+      <c r="B47" s="5">
+        <v>9.853529</v>
+      </c>
+      <c r="C47" s="5">
+        <v>17.995522999999999</v>
+      </c>
+      <c r="D47" s="5">
+        <v>33.992210999999998</v>
+      </c>
+      <c r="E47" s="5">
+        <v>9.8375880000000002</v>
+      </c>
+      <c r="F47" s="5">
+        <v>18.883702</v>
+      </c>
+      <c r="G47" s="5">
+        <v>34.102580000000003</v>
+      </c>
+      <c r="H47" s="5">
+        <v>7.4740609999999998</v>
+      </c>
+      <c r="I47" s="5">
+        <v>20.517951</v>
+      </c>
+      <c r="J47" s="5">
+        <v>34.373888999999998</v>
+      </c>
+      <c r="K47" s="5">
+        <v>10.527132</v>
+      </c>
+      <c r="L47" s="5">
+        <v>17.216940000000001</v>
+      </c>
+      <c r="M47" s="5">
+        <v>33.646102999999997</v>
+      </c>
+      <c r="N47" s="5">
+        <v>9.7236729999999998</v>
+      </c>
+      <c r="O47" s="5">
+        <v>19.456595</v>
+      </c>
+      <c r="P47" s="5">
+        <v>33.869993000000001</v>
+      </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
@@ -5750,63 +5929,63 @@
       </c>
       <c r="B56">
         <f t="shared" ref="B56:P56" si="0">AVERAGE(B2:B55)</f>
-        <v>8.8898334999999982</v>
+        <v>8.8007557209302298</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>19.201556274999998</v>
+        <v>18.986312093023255</v>
       </c>
       <c r="D56">
         <f t="shared" si="0"/>
-        <v>32.133064400000009</v>
+        <v>31.941411465116285</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>8.3927562500000015</v>
+        <v>8.3268053953488383</v>
       </c>
       <c r="F56">
         <f t="shared" si="0"/>
-        <v>18.839860424999998</v>
+        <v>18.696539999999999</v>
       </c>
       <c r="G56">
         <f t="shared" si="0"/>
-        <v>31.387670224999987</v>
+        <v>31.232829883720918</v>
       </c>
       <c r="H56">
         <f t="shared" si="0"/>
-        <v>6.9594187999999999</v>
+        <v>6.9089175348837202</v>
       </c>
       <c r="I56">
         <f t="shared" si="0"/>
-        <v>17.211854225000003</v>
+        <v>17.146449558139544</v>
       </c>
       <c r="J56">
         <f t="shared" si="0"/>
-        <v>30.426537150000001</v>
+        <v>30.287131372093025</v>
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
-        <v>8.8174181000000011</v>
+        <v>8.750216511627908</v>
       </c>
       <c r="L56">
         <f t="shared" si="0"/>
-        <v>19.072048575000007</v>
+        <v>18.894402534883731</v>
       </c>
       <c r="M56">
         <f t="shared" si="0"/>
-        <v>30.998029449999997</v>
+        <v>30.884564697674421</v>
       </c>
       <c r="N56">
         <f t="shared" si="0"/>
-        <v>7.5021340999999993</v>
+        <v>7.4768433255813953</v>
       </c>
       <c r="O56">
         <f t="shared" si="0"/>
-        <v>18.190633375000001</v>
+        <v>18.068292604651162</v>
       </c>
       <c r="P56">
         <f t="shared" si="0"/>
-        <v>31.159871250000002</v>
+        <v>31.040409000000007</v>
       </c>
     </row>
   </sheetData>

--- a/Data_Result/혈당예측_결과정리_단변량_SG필터_이상치 제거.xlsx
+++ b/Data_Result/혈당예측_결과정리_단변량_SG필터_이상치 제거.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="21075" windowHeight="8295"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="21075" windowHeight="8295" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1029,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N47" sqref="N47:P47"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N50" sqref="N50:P50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3354,21 +3354,51 @@
       <c r="A48" t="s">
         <v>123</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
+      <c r="B48" s="5">
+        <v>11.176838</v>
+      </c>
+      <c r="C48" s="5">
+        <v>19.707774000000001</v>
+      </c>
+      <c r="D48" s="5">
+        <v>29.746994999999998</v>
+      </c>
+      <c r="E48" s="5">
+        <v>9.8691689999999994</v>
+      </c>
+      <c r="F48" s="5">
+        <v>18.364333999999999</v>
+      </c>
+      <c r="G48" s="5">
+        <v>29.039014000000002</v>
+      </c>
+      <c r="H48" s="5">
+        <v>12.012905999999999</v>
+      </c>
+      <c r="I48" s="5">
+        <v>20.535101000000001</v>
+      </c>
+      <c r="J48" s="5">
+        <v>28.391864999999999</v>
+      </c>
+      <c r="K48" s="5">
+        <v>10.944815999999999</v>
+      </c>
+      <c r="L48" s="5">
+        <v>18.588405999999999</v>
+      </c>
+      <c r="M48" s="5">
+        <v>30.763805000000001</v>
+      </c>
+      <c r="N48" s="5">
+        <v>10.525543000000001</v>
+      </c>
+      <c r="O48" s="5">
+        <v>20.420742000000001</v>
+      </c>
+      <c r="P48" s="5">
+        <v>28.427667</v>
+      </c>
       <c r="Q48" t="s">
         <v>59</v>
       </c>
@@ -3377,21 +3407,51 @@
       <c r="A49" t="s">
         <v>125</v>
       </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
+      <c r="B49" s="5">
+        <v>14.285873</v>
+      </c>
+      <c r="C49" s="5">
+        <v>27.362193999999999</v>
+      </c>
+      <c r="D49" s="5">
+        <v>46.666179999999997</v>
+      </c>
+      <c r="E49" s="5">
+        <v>17.124728999999999</v>
+      </c>
+      <c r="F49" s="5">
+        <v>32.964920999999997</v>
+      </c>
+      <c r="G49" s="5">
+        <v>48.649130999999997</v>
+      </c>
+      <c r="H49" s="5">
+        <v>19.158432999999999</v>
+      </c>
+      <c r="I49" s="5">
+        <v>36.770636000000003</v>
+      </c>
+      <c r="J49" s="5">
+        <v>48.186520000000002</v>
+      </c>
+      <c r="K49" s="5">
+        <v>16.685860000000002</v>
+      </c>
+      <c r="L49" s="5">
+        <v>34.491785</v>
+      </c>
+      <c r="M49" s="5">
+        <v>53.618383999999999</v>
+      </c>
+      <c r="N49" s="5">
+        <v>15.079889</v>
+      </c>
+      <c r="O49" s="5">
+        <v>27.240983</v>
+      </c>
+      <c r="P49" s="5">
+        <v>44.132067999999997</v>
+      </c>
       <c r="Q49" t="s">
         <v>60</v>
       </c>
@@ -3400,21 +3460,51 @@
       <c r="A50" t="s">
         <v>127</v>
       </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
+      <c r="B50" s="5">
+        <v>8.5739789999999996</v>
+      </c>
+      <c r="C50" s="5">
+        <v>19.066236</v>
+      </c>
+      <c r="D50" s="5">
+        <v>34.719715999999998</v>
+      </c>
+      <c r="E50" s="5">
+        <v>8.6481440000000003</v>
+      </c>
+      <c r="F50" s="5">
+        <v>17.519732000000001</v>
+      </c>
+      <c r="G50" s="5">
+        <v>35.164177000000002</v>
+      </c>
+      <c r="H50" s="5">
+        <v>9.5812589999999993</v>
+      </c>
+      <c r="I50" s="5">
+        <v>20.755911999999999</v>
+      </c>
+      <c r="J50" s="5">
+        <v>36.678018000000002</v>
+      </c>
+      <c r="K50" s="5">
+        <v>8.6209039999999995</v>
+      </c>
+      <c r="L50" s="5">
+        <v>18.103869</v>
+      </c>
+      <c r="M50" s="5">
+        <v>36.467584000000002</v>
+      </c>
+      <c r="N50" s="5">
+        <v>8.4891210000000008</v>
+      </c>
+      <c r="O50" s="5">
+        <v>17.9619</v>
+      </c>
+      <c r="P50" s="5">
+        <v>36.578387999999997</v>
+      </c>
       <c r="Q50" t="s">
         <v>61</v>
       </c>
@@ -3507,63 +3597,63 @@
       </c>
       <c r="B56">
         <f t="shared" ref="B56:P56" si="0">AVERAGE(B2:B55)</f>
-        <v>12.899492190476192</v>
+        <v>12.795896933333335</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>20.238987547619054</v>
+        <v>20.359415133333339</v>
       </c>
       <c r="D56">
         <f t="shared" si="0"/>
-        <v>31.353698023809518</v>
+        <v>31.733071288888883</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>12.777974560975608</v>
+        <v>12.716795431818182</v>
       </c>
       <c r="F56">
         <f t="shared" si="0"/>
-        <v>21.083198071428569</v>
+        <v>21.207629022222218</v>
       </c>
       <c r="G56">
         <f t="shared" si="0"/>
-        <v>32.617928833333337</v>
+        <v>32.951229622222222</v>
       </c>
       <c r="H56">
         <f t="shared" si="0"/>
-        <v>15.075687904761905</v>
+        <v>14.976255333333334</v>
       </c>
       <c r="I56">
         <f t="shared" si="0"/>
-        <v>21.725911750000002</v>
+        <v>22.025537651162789</v>
       </c>
       <c r="J56">
         <f t="shared" si="0"/>
-        <v>32.868350857142843</v>
+        <v>33.193936422222215</v>
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
-        <v>13.284055309523813</v>
+        <v>13.204042288888893</v>
       </c>
       <c r="L56">
         <f t="shared" si="0"/>
-        <v>21.470826285714288</v>
+        <v>21.621305866666667</v>
       </c>
       <c r="M56">
         <f t="shared" si="0"/>
-        <v>32.537544399999987</v>
+        <v>33.077942999999998</v>
       </c>
       <c r="N56">
         <f t="shared" si="0"/>
-        <v>13.196335243902437</v>
+        <v>13.071461318181814</v>
       </c>
       <c r="O56">
         <f t="shared" si="0"/>
-        <v>20.921156731707317</v>
+        <v>20.986160250000001</v>
       </c>
       <c r="P56">
         <f t="shared" si="0"/>
-        <v>32.604140975609752</v>
+        <v>32.86154324999999</v>
       </c>
     </row>
   </sheetData>
@@ -3577,8 +3667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N47" sqref="N47:P47"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="S47" sqref="S47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5807,61 +5897,151 @@
       <c r="A48" t="s">
         <v>124</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
+      <c r="B48" s="5">
+        <v>7.8213439999999999</v>
+      </c>
+      <c r="C48" s="5">
+        <v>19.051333</v>
+      </c>
+      <c r="D48" s="5">
+        <v>34.065077000000002</v>
+      </c>
+      <c r="E48" s="5">
+        <v>6.4478710000000001</v>
+      </c>
+      <c r="F48" s="5">
+        <v>16.297440000000002</v>
+      </c>
+      <c r="G48" s="5">
+        <v>29.646266000000001</v>
+      </c>
+      <c r="H48" s="5">
+        <v>4.7558699999999998</v>
+      </c>
+      <c r="I48" s="5">
+        <v>17.094760000000001</v>
+      </c>
+      <c r="J48" s="5">
+        <v>30.775891999999999</v>
+      </c>
+      <c r="K48" s="5">
+        <v>6.36233</v>
+      </c>
+      <c r="L48" s="5">
+        <v>16.738631999999999</v>
+      </c>
+      <c r="M48" s="5">
+        <v>31.133285999999998</v>
+      </c>
+      <c r="N48" s="5">
+        <v>5.7435359999999998</v>
+      </c>
+      <c r="O48" s="5">
+        <v>15.470074</v>
+      </c>
+      <c r="P48" s="5">
+        <v>31.333461</v>
+      </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>126</v>
       </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
+      <c r="B49" s="5">
+        <v>10.496897000000001</v>
+      </c>
+      <c r="C49" s="5">
+        <v>24.117283</v>
+      </c>
+      <c r="D49" s="5">
+        <v>39.387289000000003</v>
+      </c>
+      <c r="E49" s="5">
+        <v>10.817129</v>
+      </c>
+      <c r="F49" s="5">
+        <v>24.719895999999999</v>
+      </c>
+      <c r="G49" s="5">
+        <v>41.293843000000003</v>
+      </c>
+      <c r="H49" s="5">
+        <v>9.3945190000000007</v>
+      </c>
+      <c r="I49" s="5">
+        <v>23.231598999999999</v>
+      </c>
+      <c r="J49" s="5">
+        <v>39.042589999999997</v>
+      </c>
+      <c r="K49" s="5">
+        <v>13.824629</v>
+      </c>
+      <c r="L49" s="5">
+        <v>28.885888999999999</v>
+      </c>
+      <c r="M49" s="5">
+        <v>38.337077999999998</v>
+      </c>
+      <c r="N49" s="5">
+        <v>9.0702560000000005</v>
+      </c>
+      <c r="O49" s="5">
+        <v>24.300730000000001</v>
+      </c>
+      <c r="P49" s="5">
+        <v>39.422069</v>
+      </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>128</v>
       </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
+      <c r="B50" s="5">
+        <v>8.3541050000000006</v>
+      </c>
+      <c r="C50" s="5">
+        <v>19.146588999999999</v>
+      </c>
+      <c r="D50" s="5">
+        <v>34.865561999999997</v>
+      </c>
+      <c r="E50" s="5">
+        <v>7.646452</v>
+      </c>
+      <c r="F50" s="5">
+        <v>18.212682000000001</v>
+      </c>
+      <c r="G50" s="5">
+        <v>33.927146</v>
+      </c>
+      <c r="H50" s="5">
+        <v>5.3524240000000001</v>
+      </c>
+      <c r="I50" s="5">
+        <v>15.543628999999999</v>
+      </c>
+      <c r="J50" s="5">
+        <v>36.747556000000003</v>
+      </c>
+      <c r="K50" s="5">
+        <v>7.4133849999999999</v>
+      </c>
+      <c r="L50" s="5">
+        <v>16.462842999999999</v>
+      </c>
+      <c r="M50" s="5">
+        <v>33.474943000000003</v>
+      </c>
+      <c r="N50" s="5">
+        <v>7.5371670000000002</v>
+      </c>
+      <c r="O50" s="5">
+        <v>16.934882000000002</v>
+      </c>
+      <c r="P50" s="5">
+        <v>34.749830000000003</v>
+      </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
@@ -5929,63 +6109,63 @@
       </c>
       <c r="B56">
         <f t="shared" ref="B56:P56" si="0">AVERAGE(B2:B55)</f>
-        <v>8.8007557209302298</v>
+        <v>8.8066269999999971</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>18.986312093023255</v>
+        <v>19.102752717391301</v>
       </c>
       <c r="D56">
         <f t="shared" si="0"/>
-        <v>31.941411465116285</v>
+        <v>32.213013500000002</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>8.3268053953488383</v>
+        <v>8.3253061739130452</v>
       </c>
       <c r="F56">
         <f t="shared" si="0"/>
-        <v>18.696539999999999</v>
+        <v>18.764809521739128</v>
       </c>
       <c r="G56">
         <f t="shared" si="0"/>
-        <v>31.232829883720918</v>
+        <v>31.475629130434768</v>
       </c>
       <c r="H56">
         <f t="shared" si="0"/>
-        <v>6.9089175348837202</v>
+        <v>6.8823101521739121</v>
       </c>
       <c r="I56">
         <f t="shared" si="0"/>
-        <v>17.146449558139544</v>
+        <v>17.242767804347832</v>
       </c>
       <c r="J56">
         <f t="shared" si="0"/>
-        <v>30.287131372093025</v>
+        <v>30.62853667391305</v>
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
-        <v>8.750216511627908</v>
+        <v>8.7795576956521746</v>
       </c>
       <c r="L56">
         <f t="shared" si="0"/>
-        <v>18.894402534883731</v>
+        <v>19.011884195652186</v>
       </c>
       <c r="M56">
         <f t="shared" si="0"/>
-        <v>30.884564697674421</v>
+        <v>31.108295413043479</v>
       </c>
       <c r="N56">
         <f t="shared" si="0"/>
-        <v>7.4768433255813953</v>
+        <v>7.4751135217391296</v>
       </c>
       <c r="O56">
         <f t="shared" si="0"/>
-        <v>18.068292604651162</v>
+        <v>18.122658000000001</v>
       </c>
       <c r="P56">
         <f t="shared" si="0"/>
-        <v>31.040409000000007</v>
+        <v>31.3096292826087</v>
       </c>
     </row>
   </sheetData>
